--- a/differences_6_0.2.xlsx
+++ b/differences_6_0.2.xlsx
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.09299999999999997</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.04799999999999999</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -607,7 +607,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04699999999999993</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.05299999999999994</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1290000000000001</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -705,7 +705,7 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.04700000000000004</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -806,7 +806,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.01600000000000001</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1027,13 +1027,13 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.06599999999999995</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02700000000000002</v>
+        <v>0</v>
       </c>
       <c r="C49" t="n">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.03100000000000003</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -3419,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.02300000000000002</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
         <v>0</v>
@@ -3548,7 +3548,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.01100000000000001</v>
       </c>
       <c r="C68" t="n">
         <v>0</v>
@@ -3575,7 +3575,7 @@
         <v>0</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>-0.01800000000000002</v>
       </c>
       <c r="L68" t="n">
         <v>0</v>
@@ -4158,10 +4158,10 @@
         <v>0</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>0.1019999999999999</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.1699999999999999</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>0.116</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -4471,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>-0.06799999999999995</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -4544,7 +4544,7 @@
         <v>0</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>-0.01199999999999996</v>
       </c>
       <c r="M89" t="n">
         <v>0</v>
@@ -4710,10 +4710,10 @@
         <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>-0.02600000000000002</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.008000000000000007</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -4900,13 +4900,13 @@
         <v>0</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>0.05299999999999999</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>0.006000000000000005</v>
       </c>
       <c r="K97" t="n">
         <v>0</v>
@@ -5050,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>-0.03299999999999997</v>
       </c>
       <c r="M100" t="n">
         <v>0</v>
